--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -40,51 +40,48 @@
     <t>name</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -103,43 +100,46 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0.8</v>
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,16 +840,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.6266666666666667</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -869,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -919,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>0.55</v>
@@ -969,38 +969,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C11">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>0.25</v>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L11">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.3541666666666667</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5357142857142857</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.1438979963570128</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L13">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>940</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.07420494699646643</v>
+        <v>0.1238615664845173</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>262</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.0572289156626506</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>626</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4468085106382979</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.05194805194805195</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>584</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1287,69 +1287,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.05396825396825397</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.04629629629629629</v>
-      </c>
-      <c r="L17">
-        <v>25</v>
-      </c>
-      <c r="M17">
-        <v>25</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>62</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K18">
-        <v>0.02534562211981567</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1361,33 +1337,59 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1692</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.03765060240963856</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K19">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>765</v>
+      <c r="K20">
+        <v>0.02995391705069124</v>
+      </c>
+      <c r="L20">
+        <v>52</v>
+      </c>
+      <c r="M20">
+        <v>52</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
